--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang12/2.XulyBH/XLBH2212_Maxconnect.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang12/2.XulyBH/XLBH2212_Maxconnect.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="74">
   <si>
     <t>STT</t>
   </si>
@@ -252,13 +252,28 @@
     <t>VNSH02</t>
   </si>
   <si>
-    <t>WP21110052S00738/</t>
-  </si>
-  <si>
     <t>Sim +thẻ</t>
   </si>
   <si>
     <t>Còn BH</t>
+  </si>
+  <si>
+    <t>Đổi thiết bị mới</t>
+  </si>
+  <si>
+    <t>ĐM</t>
+  </si>
+  <si>
+    <t>Thể</t>
+  </si>
+  <si>
+    <t>WP21110052S00738</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>ID thiết bị mới : WP21110069S00821/003200146B</t>
   </si>
 </sst>
 </file>
@@ -710,30 +725,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -751,6 +742,30 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1061,8 +1076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:J6"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1094,41 +1109,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="90"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1173,58 +1188,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1249,23 +1264,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1275,35 +1290,49 @@
       <c r="B6" s="61">
         <v>44903</v>
       </c>
-      <c r="C6" s="61"/>
+      <c r="C6" s="61">
+        <v>44907</v>
+      </c>
       <c r="D6" s="59" t="s">
         <v>65</v>
       </c>
       <c r="E6" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="F6" s="59" t="s">
+      <c r="G6" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="G6" s="59" t="s">
-        <v>68</v>
-      </c>
-      <c r="H6" s="62"/>
+      <c r="H6" s="62" t="s">
+        <v>73</v>
+      </c>
       <c r="I6" s="63"/>
       <c r="J6" s="64" t="s">
         <v>64</v>
       </c>
       <c r="K6" s="65"/>
       <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
+      <c r="M6" s="66" t="s">
+        <v>68</v>
+      </c>
       <c r="N6" s="64"/>
-      <c r="O6" s="64"/>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="64"/>
-      <c r="R6" s="67"/>
+      <c r="O6" s="64" t="s">
+        <v>69</v>
+      </c>
+      <c r="P6" s="66" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q6" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="67" t="s">
+        <v>31</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="57"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1334,7 +1363,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="57"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1363,7 +1392,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="57"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1378,7 +1407,9 @@
       <c r="D9" s="59"/>
       <c r="E9" s="60"/>
       <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
+      <c r="G9" s="59" t="s">
+        <v>72</v>
+      </c>
       <c r="H9" s="62"/>
       <c r="I9" s="51"/>
       <c r="J9" s="1"/>
@@ -1392,7 +1423,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="57"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1421,7 +1452,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="57"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1450,7 +1481,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="57"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1479,7 +1510,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="57"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1510,7 +1541,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="57"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1539,7 +1570,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="57"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1568,7 +1599,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1597,7 +1628,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -1747,7 +1778,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -1992,7 +2023,7 @@
       </c>
       <c r="V29" s="9">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29" s="13"/>
     </row>
@@ -2248,7 +2279,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -3313,6 +3344,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3324,13 +3362,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3374,39 +3405,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3451,58 +3482,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -3527,23 +3558,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3569,7 +3600,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3600,7 +3631,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3629,7 +3660,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3658,7 +3689,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3687,7 +3718,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3716,7 +3747,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3745,7 +3776,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3776,7 +3807,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3805,7 +3836,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3834,7 +3865,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3863,7 +3894,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5579,13 +5610,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5597,6 +5621,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5640,39 +5671,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -5717,58 +5748,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -5793,23 +5824,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5835,7 +5866,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5866,7 +5897,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5895,7 +5926,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5924,7 +5955,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5953,7 +5984,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5982,7 +6013,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6011,7 +6042,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6042,7 +6073,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6071,7 +6102,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6100,7 +6131,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6129,7 +6160,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -7845,13 +7876,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7863,6 +7887,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7906,39 +7937,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -7983,58 +8014,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -8059,23 +8090,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8101,7 +8132,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8132,7 +8163,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8161,7 +8192,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8190,7 +8221,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8219,7 +8250,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8248,7 +8279,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8277,7 +8308,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8308,7 +8339,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8337,7 +8368,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8366,7 +8397,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8395,7 +8426,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10111,13 +10142,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10129,6 +10153,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10172,39 +10203,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -10249,58 +10280,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -10325,23 +10356,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10367,7 +10398,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10398,7 +10429,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10427,7 +10458,7 @@
       <c r="R8" s="67"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10456,7 +10487,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -10485,7 +10516,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -10514,7 +10545,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -10543,7 +10574,7 @@
       <c r="R12" s="67"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -10574,7 +10605,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -10603,7 +10634,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -10632,7 +10663,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -10661,7 +10692,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -12377,13 +12408,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12395,6 +12419,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12438,39 +12469,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -12515,58 +12546,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -12591,23 +12622,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12633,7 +12664,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="76"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -12664,7 +12695,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="76"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -12693,7 +12724,7 @@
       <c r="R8" s="67"/>
       <c r="S8" s="76"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -12722,7 +12753,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="76"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -12751,7 +12782,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="76"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -12780,7 +12811,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="76"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -12809,7 +12840,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -12840,7 +12871,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -12869,7 +12900,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -12898,7 +12929,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -12927,7 +12958,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -14643,13 +14674,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -14661,6 +14685,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14704,39 +14735,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -14781,58 +14812,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -14857,23 +14888,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -14899,7 +14930,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -14930,7 +14961,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -14959,7 +14990,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -14988,7 +15019,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -15017,7 +15048,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -15046,7 +15077,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -15075,7 +15106,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -15106,7 +15137,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -15135,7 +15166,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -15164,7 +15195,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -15193,7 +15224,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -16909,13 +16940,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -16927,6 +16951,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -16970,39 +17001,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -17047,58 +17078,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -17123,23 +17154,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17165,7 +17196,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -17196,7 +17227,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -17225,7 +17256,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -17254,7 +17285,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -17283,7 +17314,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -17312,7 +17343,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -17341,7 +17372,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -17372,7 +17403,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -17401,7 +17432,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -17430,7 +17461,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -17459,7 +17490,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -19175,13 +19206,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -19193,6 +19217,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -19236,39 +19267,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -19313,58 +19344,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="86" t="s">
+      <c r="O4" s="78" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="86" t="s">
+      <c r="Q4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="86" t="s">
+      <c r="R4" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -19389,23 +19420,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="86"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="78"/>
       <c r="P5" s="92"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="85"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -19431,7 +19462,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -19462,7 +19493,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -19491,7 +19522,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -19520,7 +19551,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -19549,7 +19580,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -19578,7 +19609,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -19607,7 +19638,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -19638,7 +19669,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -19667,7 +19698,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -19696,7 +19727,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -19725,7 +19756,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -20956,6 +20987,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -20967,13 +21005,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
